--- a/teaching/traditional_assets/database/data/estonia/estonia_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/estonia/estonia_bank_money_center.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.225</v>
+        <v>0.1845</v>
       </c>
       <c r="E2">
-        <v>0.383</v>
+        <v>0.148</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.0001404529430417588</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.0001308072106874574</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>33.48999999999999</v>
+        <v>37.84</v>
       </c>
       <c r="L2">
-        <v>0.3459710743801652</v>
+        <v>0.3158597662771285</v>
       </c>
       <c r="M2">
-        <v>5.96</v>
+        <v>6.35</v>
       </c>
       <c r="N2">
-        <v>0.01215334420880914</v>
+        <v>0.007773289264291835</v>
       </c>
       <c r="O2">
-        <v>0.1779635712152882</v>
+        <v>0.1678118393234672</v>
       </c>
       <c r="P2">
-        <v>5.96</v>
+        <v>6.35</v>
       </c>
       <c r="Q2">
-        <v>0.01215334420880914</v>
+        <v>0.007773289264291835</v>
       </c>
       <c r="R2">
-        <v>0.1779635712152882</v>
+        <v>0.1678118393234672</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1684.4</v>
+        <v>2212.7</v>
       </c>
       <c r="V2">
-        <v>3.434747145187602</v>
+        <v>2.708654670094258</v>
       </c>
       <c r="W2">
-        <v>0.135180250203568</v>
+        <v>0.1317822641509434</v>
       </c>
       <c r="X2">
-        <v>0.04937135367068647</v>
+        <v>0.04850390130502357</v>
       </c>
       <c r="Y2">
-        <v>0.08580889653288153</v>
+        <v>0.08327836284591983</v>
       </c>
       <c r="Z2">
-        <v>-0.1042595608970075</v>
+        <v>-0.09436711802191397</v>
       </c>
       <c r="AA2">
-        <v>0.002072336217777107</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04480491110890114</v>
+        <v>0.03727689281575863</v>
       </c>
       <c r="AC2">
-        <v>-0.04273257489112404</v>
+        <v>-0.03727689281575863</v>
       </c>
       <c r="AD2">
-        <v>151.7</v>
+        <v>738.6</v>
       </c>
       <c r="AE2">
-        <v>6.557979224432211</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>158.2579792244322</v>
+        <v>738.6</v>
       </c>
       <c r="AG2">
-        <v>-1526.142020775568</v>
+        <v>-1474.1</v>
       </c>
       <c r="AH2">
-        <v>0.2439775417757958</v>
+        <v>0.474831243972999</v>
       </c>
       <c r="AI2">
-        <v>0.3615193479849641</v>
+        <v>0.663611859838275</v>
       </c>
       <c r="AJ2">
-        <v>1.47347697608405</v>
+        <v>2.243000608642727</v>
       </c>
       <c r="AK2">
-        <v>1.224202293314416</v>
+        <v>1.340456488133127</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>116.8721109399076</v>
-      </c>
-      <c r="AP2">
-        <v>-1175.764268702287</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coop Pank AS (TLSE:COOPIPO1)</t>
+          <t>Coop Pank AS (TLSE:CPA1T)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.22</v>
+        <v>0.194</v>
       </c>
       <c r="E3">
-        <v>0.4320000000000001</v>
+        <v>0.178</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.009195266570185247</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.009159206701282559</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.09</v>
+        <v>7.54</v>
       </c>
       <c r="L3">
-        <v>0.271875</v>
+        <v>0.2654929577464789</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -764,67 +758,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>110.9</v>
+        <v>191.5</v>
       </c>
       <c r="V3">
-        <v>1.032588454376164</v>
+        <v>1.478764478764479</v>
       </c>
       <c r="W3">
-        <v>0.110126582278481</v>
+        <v>0.12064</v>
       </c>
       <c r="X3">
-        <v>0.05003886823450109</v>
+        <v>0.04057935693798563</v>
       </c>
       <c r="Y3">
-        <v>0.06008771404397992</v>
+        <v>0.08006064306201437</v>
       </c>
       <c r="Z3">
-        <v>-0.4731714917512355</v>
+        <v>-1.663737551259519</v>
       </c>
       <c r="AA3">
-        <v>0.004333875498103781</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.04594483040649983</v>
+        <v>0.03639896689941027</v>
       </c>
       <c r="AC3">
-        <v>-0.04161095490839605</v>
+        <v>-0.03639896689941027</v>
       </c>
       <c r="AD3">
-        <v>38.7</v>
+        <v>33.7</v>
       </c>
       <c r="AE3">
-        <v>1.869869855860748</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>40.56986985586075</v>
+        <v>33.7</v>
       </c>
       <c r="AG3">
-        <v>-70.33013014413925</v>
+        <v>-157.8</v>
       </c>
       <c r="AH3">
-        <v>0.2741765596967839</v>
+        <v>0.2064950980392157</v>
       </c>
       <c r="AI3">
-        <v>0.3936152234653653</v>
+        <v>0.2333795013850416</v>
       </c>
       <c r="AJ3">
-        <v>-1.897231644394889</v>
+        <v>5.575971731448761</v>
       </c>
       <c r="AK3">
-        <v>8.981987380730889</v>
+        <v>3.350318471337579</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>230.3571428571429</v>
-      </c>
-      <c r="AP3">
-        <v>-418.6317270484479</v>
       </c>
     </row>
     <row r="4">
@@ -844,10 +832,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.23</v>
+        <v>0.175</v>
       </c>
       <c r="E4">
-        <v>0.334</v>
+        <v>0.118</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -856,34 +844,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.002585727503840151</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.002240713281670782</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>27.4</v>
+        <v>30.3</v>
       </c>
       <c r="L4">
-        <v>0.3682795698924731</v>
+        <v>0.3315098468271335</v>
       </c>
       <c r="M4">
-        <v>5.96</v>
+        <v>6.35</v>
       </c>
       <c r="N4">
-        <v>0.01556135770234987</v>
+        <v>0.009237707302880418</v>
       </c>
       <c r="O4">
-        <v>0.2175182481751825</v>
+        <v>0.2095709570957096</v>
       </c>
       <c r="P4">
-        <v>5.96</v>
+        <v>6.35</v>
       </c>
       <c r="Q4">
-        <v>0.01556135770234987</v>
+        <v>0.009237707302880418</v>
       </c>
       <c r="R4">
-        <v>0.2175182481751825</v>
+        <v>0.2095709570957096</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -892,67 +880,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1573.5</v>
+        <v>2021.2</v>
       </c>
       <c r="V4">
-        <v>4.108355091383812</v>
+        <v>2.94035496072156</v>
       </c>
       <c r="W4">
-        <v>0.160233918128655</v>
+        <v>0.1429245283018868</v>
       </c>
       <c r="X4">
-        <v>0.04870383910687185</v>
+        <v>0.05642844567206151</v>
       </c>
       <c r="Y4">
-        <v>0.1115300790217831</v>
+        <v>0.08649608262982528</v>
       </c>
       <c r="Z4">
-        <v>-0.08443876514557414</v>
+        <v>-0.0729775478266424</v>
       </c>
       <c r="AA4">
-        <v>-0.0001892030625495679</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.04366499181130246</v>
+        <v>0.03815481873210701</v>
       </c>
       <c r="AC4">
-        <v>-0.04385419487385202</v>
+        <v>-0.03815481873210701</v>
       </c>
       <c r="AD4">
-        <v>113</v>
+        <v>704.9</v>
       </c>
       <c r="AE4">
-        <v>4.688109368571463</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>117.6881093685715</v>
+        <v>704.9</v>
       </c>
       <c r="AG4">
-        <v>-1455.811890631428</v>
+        <v>-1316.3</v>
       </c>
       <c r="AH4">
-        <v>0.2350527347593504</v>
+        <v>0.5062845651080945</v>
       </c>
       <c r="AI4">
-        <v>0.3516351674118448</v>
+        <v>0.7277513937641958</v>
       </c>
       <c r="AJ4">
-        <v>1.357005737300857</v>
+        <v>2.093019557958339</v>
       </c>
       <c r="AK4">
-        <v>1.175167837539397</v>
+        <v>1.25052251567547</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>100</v>
-      </c>
-      <c r="AP4">
-        <v>-1288.329106753477</v>
       </c>
     </row>
   </sheetData>
